--- a/electronics/TrinketCar_BOM.xlsx
+++ b/electronics/TrinketCar_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Eagle\Projects\TrinketCar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdrk0011\Documents\GitHub\MicroRover\electronics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -154,8 +154,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.000"/>
-    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -201,8 +201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,6 +484,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A3:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -991,7 +994,8 @@
     <hyperlink ref="G6" r:id="rId3"/>
     <hyperlink ref="H6" r:id="rId4"/>
   </hyperlinks>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup scale="79" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>